--- a/data/premier_league_table_2024-25.xlsx
+++ b/data/premier_league_table_2024-25.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>country</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
